--- a/Customer/CustomerApp/CustomerApp/Resources/Excelbill.xlsx
+++ b/Customer/CustomerApp/CustomerApp/Resources/Excelbill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD1-20\Desktop\Final\Customer\CustomerApp\CustomerApp\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF3F6BC-6C80-4CED-83C9-7F114FBE20C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85C3901-F090-4484-9FEB-8CD1B7BCAB8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{BDBE31D2-F23C-4AF6-B933-5C2646BEE2D6}"/>
   </bookViews>
@@ -124,12 +124,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="177" formatCode="General\ &quot;개&quot;"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +212,21 @@
       <name val="한양신명조"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="한양신명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -367,43 +380,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -435,99 +411,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -598,6 +484,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +498,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07750E9A-77F3-4A54-8A05-03915F35D905}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -993,293 +909,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="40"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="46"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="46"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="46"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="46"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="7"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+    <row r="9" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="5">
-        <f>SUM(J9:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="6"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="20">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:K7"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:A7"/>
@@ -1290,56 +1083,6 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:K7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
